--- a/github_분석/cuda 관련/cuda_kmeans_10clusters.xlsx
+++ b/github_분석/cuda 관련/cuda_kmeans_10clusters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seop/Documents/GitHub/-GitHub_Crawling_TextMining_Project/github_분석/cuda 관련/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69D1A3C-7D5F-7743-9FF7-97E0FEDE85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A69EC4-ACB0-BE46-B499-CF4C640FAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>num</t>
   </si>
@@ -134,6 +134,34 @@
   </si>
   <si>
     <t>[('cuda', 62), ('gpu', 44), ('cpp', 22), ('openmp', 19), ('hpc', 19), ('mpi', 17), ('c-plus-plus', 12), ('parallel', 9), ('parallel-computing', 9), ('cpp14', 8), ('cpp17', 8), ('rocm', 7), ('linear-algebra', 7), ('fortran', 7), ('avx', 6)]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">열개 클러스터에 대해서 토픽 15개씩 뽑았잖아 클러스터간의 동시단어 분석 하고 싶다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 클러스터가 문서로 대응 되는거고 ? 토픽에 단어들이 클러스터에 포함 된 단어들로 볼 수 있찌 ? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그 개념으로 단어가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클러스터가 문서야? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그럼 행이D 라고하면 각각의 토픽이 T라고 햇을때 DXT  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dxt -&gt; txt   aksemfrh  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlfjgrp cuda/ google  cluster 10rodp eogotj aksemfdjqhkdi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="191" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -699,6 +727,41 @@
       </c>
       <c r="E11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
